--- a/liner regression models experimental results/e6000_FrozenLake__compare.xlsx
+++ b/liner regression models experimental results/e6000_FrozenLake__compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anomaly_on_DRL\rldx-trajfactory-master\liner regression models experimental results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095ADC29-BB24-41D3-8E28-9E9D15404B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01153D83-DCB5-4F9E-846C-C069C7DBA657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -233,12 +233,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1926,7 +1935,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2126B490-62F8-4833-9F83-CA3210E64690}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2126B490-62F8-4833-9F83-CA3210E64690}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -2008,6 +2017,17 @@
   <dataFields count="1">
     <dataField name="Count of contains_true" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2356,7 +2376,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2387,7 +2407,7 @@
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -2401,13 +2421,13 @@
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>6</v>
       </c>
     </row>
@@ -2415,11 +2435,10 @@
       <c r="A6" s="2">
         <v>0.4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>4</v>
       </c>
     </row>
@@ -2427,13 +2446,13 @@
       <c r="A7" s="2">
         <v>0.6</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>5</v>
       </c>
     </row>
@@ -2441,11 +2460,10 @@
       <c r="A8" s="2">
         <v>0.8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>2</v>
       </c>
     </row>
@@ -2453,11 +2471,10 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>3</v>
       </c>
     </row>
@@ -2465,13 +2482,13 @@
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>20</v>
       </c>
     </row>
